--- a/aiutils/future_classify.xlsx
+++ b/aiutils/future_classify.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$G$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$79</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="250">
   <si>
     <t>underlying</t>
   </si>
@@ -725,22 +725,136 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>农产其它</t>
-  </si>
-  <si>
-    <t>农产其它</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业其它</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>自定义分类：不活跃合约，归类到“xx其它"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>classify_cci</t>
+    <t>工业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>classify_ci</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>classify_wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIND商品大类指数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵金属</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵金属</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源</t>
+  </si>
+  <si>
+    <t>有色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤焦钢矿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非金属建材</t>
+  </si>
+  <si>
+    <t>化工</t>
+  </si>
+  <si>
+    <t>化工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷物</t>
+  </si>
+  <si>
+    <t>油脂油料</t>
+  </si>
+  <si>
+    <t>软商品</t>
+  </si>
+  <si>
+    <t>农副产品</t>
+  </si>
+  <si>
+    <t>化工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能化其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农产其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农产其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农产其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农产其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农产其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农产其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农产其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业其他</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1108,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1125,12 +1239,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="F1" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="I1" t="s">
         <v>180</v>
       </c>
@@ -1155,9 +1271,11 @@
         <v>179</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>217</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1181,6 +1299,9 @@
       <c r="G3" t="s">
         <v>182</v>
       </c>
+      <c r="H3" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1204,6 +1325,9 @@
       <c r="G4" t="s">
         <v>183</v>
       </c>
+      <c r="H4" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1227,6 +1351,9 @@
       <c r="G5" t="s">
         <v>184</v>
       </c>
+      <c r="H5" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1250,6 +1377,9 @@
       <c r="G6" t="s">
         <v>185</v>
       </c>
+      <c r="H6" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1273,6 +1403,9 @@
       <c r="G7" t="s">
         <v>186</v>
       </c>
+      <c r="H7" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1291,10 +1424,13 @@
         <v>47484</v>
       </c>
       <c r="F8" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="G8" t="s">
         <v>187</v>
+      </c>
+      <c r="H8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1314,10 +1450,13 @@
         <v>47484</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="G9" t="s">
         <v>188</v>
+      </c>
+      <c r="H9" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1342,6 +1481,9 @@
       <c r="G10" t="s">
         <v>189</v>
       </c>
+      <c r="H10" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1365,6 +1507,9 @@
       <c r="G11" t="s">
         <v>190</v>
       </c>
+      <c r="H11" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1388,6 +1533,9 @@
       <c r="G12" t="s">
         <v>187</v>
       </c>
+      <c r="H12" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1411,6 +1559,9 @@
       <c r="G13" t="s">
         <v>191</v>
       </c>
+      <c r="H13" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1434,6 +1585,9 @@
       <c r="G14" t="s">
         <v>187</v>
       </c>
+      <c r="H14" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1457,6 +1611,9 @@
       <c r="G15" t="s">
         <v>182</v>
       </c>
+      <c r="H15" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1480,8 +1637,11 @@
       <c r="G16" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1503,8 +1663,11 @@
       <c r="G17" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1526,8 +1689,11 @@
       <c r="G18" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1549,8 +1715,11 @@
       <c r="G19" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1567,13 +1736,16 @@
         <v>41417</v>
       </c>
       <c r="F20" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="G20" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1590,13 +1762,16 @@
         <v>47484</v>
       </c>
       <c r="F21" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="G21" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1618,8 +1793,11 @@
       <c r="G22" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1641,8 +1819,11 @@
       <c r="G23" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1659,13 +1840,13 @@
         <v>40260</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="G24" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1687,8 +1868,11 @@
       <c r="G25" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -1710,8 +1894,11 @@
       <c r="G26" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -1734,7 +1921,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1757,7 +1944,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -1780,7 +1967,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -1802,8 +1989,11 @@
       <c r="G30" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -1825,8 +2015,11 @@
       <c r="G31" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -1848,8 +2041,11 @@
       <c r="G32" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -1866,13 +2062,16 @@
         <v>47484</v>
       </c>
       <c r="F33" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="G33" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -1894,8 +2093,11 @@
       <c r="G34" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -1917,8 +2119,11 @@
       <c r="G35" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -1935,13 +2140,16 @@
         <v>47484</v>
       </c>
       <c r="F36" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="G36" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -1958,13 +2166,16 @@
         <v>47484</v>
       </c>
       <c r="F37" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="G37" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -1986,8 +2197,11 @@
       <c r="G38" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -2009,8 +2223,11 @@
       <c r="G39" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -2026,14 +2243,17 @@
       <c r="E40" s="2">
         <v>42139</v>
       </c>
-      <c r="F40" t="s">
-        <v>43</v>
+      <c r="F40" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="G40" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -2055,8 +2275,11 @@
       <c r="G41" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -2078,8 +2301,11 @@
       <c r="G42" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -2101,8 +2327,11 @@
       <c r="G43" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -2124,8 +2353,11 @@
       <c r="G44" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -2147,8 +2379,11 @@
       <c r="G45" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -2165,13 +2400,16 @@
         <v>47484</v>
       </c>
       <c r="F46" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="G46" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -2193,8 +2431,11 @@
       <c r="G47" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -2216,8 +2457,11 @@
       <c r="G48" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -2234,13 +2478,16 @@
         <v>47484</v>
       </c>
       <c r="F49" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="G49" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -2262,8 +2509,11 @@
       <c r="G50" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -2285,8 +2535,11 @@
       <c r="G51" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -2303,13 +2556,16 @@
         <v>47484</v>
       </c>
       <c r="F52" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="G52" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>116</v>
       </c>
@@ -2331,8 +2587,11 @@
       <c r="G53" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>118</v>
       </c>
@@ -2354,8 +2613,11 @@
       <c r="G54" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>119</v>
       </c>
@@ -2372,13 +2634,16 @@
         <v>47484</v>
       </c>
       <c r="F55" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="G55" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>121</v>
       </c>
@@ -2395,13 +2660,16 @@
         <v>47484</v>
       </c>
       <c r="F56" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="G56" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>123</v>
       </c>
@@ -2423,8 +2691,11 @@
       <c r="G57" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>125</v>
       </c>
@@ -2446,8 +2717,11 @@
       <c r="G58" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>127</v>
       </c>
@@ -2469,8 +2743,11 @@
       <c r="G59" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>129</v>
       </c>
@@ -2492,8 +2769,11 @@
       <c r="G60" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -2515,8 +2795,11 @@
       <c r="G61" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>133</v>
       </c>
@@ -2538,8 +2821,11 @@
       <c r="G62" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>135</v>
       </c>
@@ -2556,13 +2842,16 @@
         <v>47484</v>
       </c>
       <c r="F63" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="G63" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>137</v>
       </c>
@@ -2584,8 +2873,11 @@
       <c r="G64" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>139</v>
       </c>
@@ -2607,8 +2899,11 @@
       <c r="G65" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>141</v>
       </c>
@@ -2631,7 +2926,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>143</v>
       </c>
@@ -2653,8 +2948,11 @@
       <c r="G67" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>146</v>
       </c>
@@ -2676,8 +2974,11 @@
       <c r="G68" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>148</v>
       </c>
@@ -2700,7 +3001,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>150</v>
       </c>
@@ -2723,7 +3024,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>152</v>
       </c>
@@ -2740,13 +3041,16 @@
         <v>47484</v>
       </c>
       <c r="F71" t="s">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>154</v>
       </c>
@@ -2768,8 +3072,11 @@
       <c r="G72" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>156</v>
       </c>
@@ -2786,13 +3093,16 @@
         <v>47484</v>
       </c>
       <c r="F73" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="G73" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>158</v>
       </c>
@@ -2809,13 +3119,16 @@
         <v>47484</v>
       </c>
       <c r="F74" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="G74" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>160</v>
       </c>
@@ -2832,13 +3145,16 @@
         <v>41417</v>
       </c>
       <c r="F75" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="G75" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>161</v>
       </c>
@@ -2855,13 +3171,16 @@
         <v>41235</v>
       </c>
       <c r="F76" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="G76" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>163</v>
       </c>
@@ -2883,8 +3202,11 @@
       <c r="G77" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>165</v>
       </c>
@@ -2906,8 +3228,11 @@
       <c r="G78" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>166</v>
       </c>
@@ -2928,6 +3253,9 @@
       </c>
       <c r="G79" t="s">
         <v>192</v>
+      </c>
+      <c r="H79" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/aiutils/future_classify.xlsx
+++ b/aiutils/future_classify.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$80</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="253">
   <si>
     <t>underlying</t>
   </si>
@@ -725,10 +725,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>自定义分类：不活跃合约，归类到“xx其它"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>工业</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -855,6 +851,22 @@
   </si>
   <si>
     <t>工业其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCFX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义分类：不活跃合约，归类到“xx其他"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1220,38 +1232,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="F1" s="3" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>181</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1271,13 +1283,13 @@
         <v>179</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1300,10 +1312,10 @@
         <v>182</v>
       </c>
       <c r="H3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1326,10 +1338,10 @@
         <v>183</v>
       </c>
       <c r="H4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1352,10 +1364,10 @@
         <v>184</v>
       </c>
       <c r="H5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1378,10 +1390,10 @@
         <v>185</v>
       </c>
       <c r="H6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1404,10 +1416,10 @@
         <v>186</v>
       </c>
       <c r="H7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1424,16 +1436,16 @@
         <v>47484</v>
       </c>
       <c r="F8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
         <v>187</v>
       </c>
       <c r="H8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1450,16 +1462,16 @@
         <v>47484</v>
       </c>
       <c r="F9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G9" t="s">
         <v>188</v>
       </c>
       <c r="H9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1482,10 +1494,10 @@
         <v>189</v>
       </c>
       <c r="H10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1508,10 +1520,10 @@
         <v>190</v>
       </c>
       <c r="H11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1534,10 +1546,10 @@
         <v>187</v>
       </c>
       <c r="H12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1560,10 +1572,10 @@
         <v>191</v>
       </c>
       <c r="H13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1586,10 +1598,10 @@
         <v>187</v>
       </c>
       <c r="H14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1612,10 +1624,10 @@
         <v>182</v>
       </c>
       <c r="H15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1638,10 +1650,10 @@
         <v>192</v>
       </c>
       <c r="H16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1664,10 +1676,10 @@
         <v>193</v>
       </c>
       <c r="H17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1690,10 +1702,10 @@
         <v>194</v>
       </c>
       <c r="H18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1716,10 +1728,10 @@
         <v>195</v>
       </c>
       <c r="H19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1736,16 +1748,16 @@
         <v>41417</v>
       </c>
       <c r="F20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G20" t="s">
         <v>196</v>
       </c>
       <c r="H20" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1762,16 +1774,16 @@
         <v>47484</v>
       </c>
       <c r="F21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G21" t="s">
         <v>188</v>
       </c>
       <c r="H21" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1794,10 +1806,10 @@
         <v>194</v>
       </c>
       <c r="H22" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1820,10 +1832,10 @@
         <v>197</v>
       </c>
       <c r="H23" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1840,13 +1852,13 @@
         <v>40260</v>
       </c>
       <c r="F24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G24" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1869,10 +1881,10 @@
         <v>198</v>
       </c>
       <c r="H25" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -1895,10 +1907,10 @@
         <v>199</v>
       </c>
       <c r="H26" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -1921,7 +1933,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1944,7 +1956,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -1967,269 +1979,266 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>249</v>
+      </c>
+      <c r="B30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C30" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" s="2">
+        <v>44764</v>
+      </c>
+      <c r="E30" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>71</v>
-      </c>
-      <c r="B30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="2">
-        <v>40648</v>
-      </c>
-      <c r="E30" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F30" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" t="s">
-        <v>199</v>
-      </c>
-      <c r="H30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>74</v>
       </c>
       <c r="B31" t="s">
         <v>169</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D31" s="2">
-        <v>41586</v>
+        <v>40648</v>
       </c>
       <c r="E31" s="2">
         <v>47484</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H31" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
         <v>169</v>
       </c>
       <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="2">
+        <v>41586</v>
+      </c>
+      <c r="E32" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D33" s="2">
         <v>41355</v>
       </c>
-      <c r="E32" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E33" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F33" t="s">
         <v>73</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>203</v>
       </c>
-      <c r="H32" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="H33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>78</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>172</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D34" s="2">
         <v>41596</v>
       </c>
-      <c r="E33" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F33" t="s">
-        <v>245</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="E34" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" t="s">
         <v>187</v>
       </c>
-      <c r="H33" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="H34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>80</v>
-      </c>
-      <c r="B34" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="2">
-        <v>39294</v>
-      </c>
-      <c r="E34" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" t="s">
-        <v>204</v>
-      </c>
-      <c r="H34" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>82</v>
       </c>
       <c r="B35" t="s">
         <v>169</v>
       </c>
       <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="2">
+        <v>39294</v>
+      </c>
+      <c r="E35" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>204</v>
+      </c>
+      <c r="H35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D36" s="2">
         <v>44204</v>
       </c>
-      <c r="E35" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="E36" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F36" t="s">
         <v>40</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>205</v>
       </c>
-      <c r="H35" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="H36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>84</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>172</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D37" s="2">
         <v>41828</v>
       </c>
-      <c r="E36" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="E37" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F37" t="s">
+        <v>245</v>
+      </c>
+      <c r="G37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="2">
+        <v>44004</v>
+      </c>
+      <c r="E38" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F38" t="s">
         <v>246</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G38" t="s">
+        <v>207</v>
+      </c>
+      <c r="H38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="2">
+        <v>38355</v>
+      </c>
+      <c r="E39" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
         <v>187</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H39" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" t="s">
-        <v>175</v>
-      </c>
-      <c r="C37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="2">
-        <v>44004</v>
-      </c>
-      <c r="E37" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F37" t="s">
-        <v>247</v>
-      </c>
-      <c r="G37" t="s">
-        <v>207</v>
-      </c>
-      <c r="H37" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="2">
-        <v>38355</v>
-      </c>
-      <c r="E38" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" t="s">
-        <v>187</v>
-      </c>
-      <c r="H38" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>90</v>
-      </c>
-      <c r="B39" t="s">
-        <v>172</v>
-      </c>
-      <c r="C39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="2">
-        <v>41807</v>
-      </c>
-      <c r="E39" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" t="s">
-        <v>207</v>
-      </c>
-      <c r="H39" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>92</v>
       </c>
       <c r="B40" t="s">
         <v>172</v>
@@ -2238,111 +2247,111 @@
         <v>91</v>
       </c>
       <c r="D40" s="2">
+        <v>41807</v>
+      </c>
+      <c r="E40" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" t="s">
+        <v>207</v>
+      </c>
+      <c r="H40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="2">
         <v>40844</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E41" s="2">
         <v>42139</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F41" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G41" t="s">
         <v>194</v>
       </c>
-      <c r="H40" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="H41" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>93</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>170</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D42" s="2">
         <v>42090</v>
       </c>
-      <c r="E41" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="E42" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F42" t="s">
         <v>12</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>192</v>
       </c>
-      <c r="H41" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="H42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>95</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>175</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D43" s="2">
         <v>43689</v>
       </c>
-      <c r="E42" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="E43" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F43" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H42" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="H43" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>97</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>172</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D44" s="2">
         <v>41106</v>
-      </c>
-      <c r="E43" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F43" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" t="s">
-        <v>182</v>
-      </c>
-      <c r="H43" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" t="s">
-        <v>174</v>
-      </c>
-      <c r="C44" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="2">
-        <v>39384</v>
       </c>
       <c r="E44" s="2">
         <v>47484</v>
@@ -2351,437 +2360,437 @@
         <v>28</v>
       </c>
       <c r="G44" t="s">
+        <v>182</v>
+      </c>
+      <c r="H44" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="2">
+        <v>39384</v>
+      </c>
+      <c r="E45" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" t="s">
         <v>208</v>
       </c>
-      <c r="H44" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="H45" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>101</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>170</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D46" s="2">
         <v>40626</v>
       </c>
-      <c r="E45" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="E46" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F46" t="s">
         <v>12</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G46" t="s">
         <v>209</v>
       </c>
-      <c r="H45" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="H46" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>103</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>172</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D47" s="2">
         <v>44116</v>
       </c>
-      <c r="E46" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F46" t="s">
-        <v>247</v>
-      </c>
-      <c r="G46" t="s">
-        <v>194</v>
-      </c>
-      <c r="H46" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" t="s">
-        <v>169</v>
-      </c>
-      <c r="C47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="2">
-        <v>43920</v>
-      </c>
       <c r="E47" s="2">
         <v>47484</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
+        <v>246</v>
       </c>
       <c r="G47" t="s">
         <v>194</v>
       </c>
       <c r="H47" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="2">
+        <v>43920</v>
+      </c>
+      <c r="E48" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s">
+        <v>194</v>
+      </c>
+      <c r="H48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>107</v>
-      </c>
-      <c r="B48" t="s">
-        <v>172</v>
-      </c>
-      <c r="C48" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="2">
-        <v>44228</v>
-      </c>
-      <c r="E48" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" t="s">
-        <v>187</v>
-      </c>
-      <c r="H48" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>109</v>
       </c>
       <c r="B49" t="s">
         <v>172</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D49" s="2">
-        <v>40925</v>
+        <v>44228</v>
       </c>
       <c r="E49" s="2">
         <v>47484</v>
       </c>
       <c r="F49" t="s">
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="H49" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="2">
+        <v>40925</v>
+      </c>
+      <c r="E50" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F50" t="s">
+        <v>244</v>
+      </c>
+      <c r="G50" t="s">
+        <v>208</v>
+      </c>
+      <c r="H50" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>111</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>169</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D51" s="2">
         <v>41698</v>
       </c>
-      <c r="E50" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E51" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F51" t="s">
         <v>25</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G51" t="s">
         <v>207</v>
       </c>
-      <c r="H50" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="H51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>113</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>170</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>114</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D52" s="2">
         <v>39899</v>
       </c>
-      <c r="E51" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E52" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F52" t="s">
         <v>59</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G52" t="s">
         <v>199</v>
       </c>
-      <c r="H51" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="H52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>115</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>172</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D53" s="2">
         <v>41114</v>
       </c>
-      <c r="E52" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F52" t="s">
-        <v>243</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="E53" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F53" t="s">
+        <v>242</v>
+      </c>
+      <c r="G53" t="s">
         <v>187</v>
       </c>
-      <c r="H52" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="H53" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>116</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>177</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D54" s="2">
         <v>41271</v>
       </c>
-      <c r="E53" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F53" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" t="s">
-        <v>208</v>
-      </c>
-      <c r="H53" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>118</v>
-      </c>
-      <c r="B54" t="s">
-        <v>172</v>
-      </c>
-      <c r="C54" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" s="2">
-        <v>39241</v>
-      </c>
       <c r="E54" s="2">
-        <v>41409</v>
+        <v>47484</v>
       </c>
       <c r="F54" t="s">
         <v>6</v>
       </c>
       <c r="G54" t="s">
+        <v>208</v>
+      </c>
+      <c r="H54" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="2">
+        <v>39241</v>
+      </c>
+      <c r="E55" s="2">
+        <v>41409</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
         <v>210</v>
-      </c>
-      <c r="H54" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>119</v>
-      </c>
-      <c r="B55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C55" t="s">
-        <v>120</v>
-      </c>
-      <c r="D55" s="2">
-        <v>43693</v>
-      </c>
-      <c r="E55" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F55" t="s">
-        <v>248</v>
-      </c>
-      <c r="G55" t="s">
-        <v>187</v>
       </c>
       <c r="H55" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B56" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D56" s="2">
-        <v>41271</v>
+        <v>43693</v>
       </c>
       <c r="E56" s="2">
         <v>47484</v>
       </c>
       <c r="F56" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G56" t="s">
         <v>187</v>
       </c>
       <c r="H56" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="2">
+        <v>41271</v>
+      </c>
+      <c r="E57" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F57" t="s">
+        <v>244</v>
+      </c>
+      <c r="G57" t="s">
+        <v>187</v>
+      </c>
+      <c r="H57" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>123</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>170</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>124</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D58" s="2">
         <v>38355</v>
       </c>
-      <c r="E57" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="E58" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F58" t="s">
         <v>59</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H57" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>125</v>
-      </c>
-      <c r="B58" t="s">
-        <v>172</v>
-      </c>
-      <c r="C58" t="s">
-        <v>126</v>
-      </c>
-      <c r="D58" s="2">
-        <v>43805</v>
-      </c>
-      <c r="E58" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F58" t="s">
-        <v>52</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>194</v>
       </c>
       <c r="H58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="2">
+        <v>43805</v>
+      </c>
+      <c r="E59" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F59" t="s">
+        <v>52</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H59" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>127</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>175</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>128</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D60" s="2">
         <v>43185</v>
       </c>
-      <c r="E59" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="E60" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F60" t="s">
         <v>43</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G60" t="s">
         <v>194</v>
       </c>
-      <c r="H59" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="H60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>129</v>
-      </c>
-      <c r="B60" t="s">
-        <v>172</v>
-      </c>
-      <c r="C60" t="s">
-        <v>130</v>
-      </c>
-      <c r="D60" s="2">
-        <v>41859</v>
-      </c>
-      <c r="E60" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F60" t="s">
-        <v>52</v>
-      </c>
-      <c r="G60" t="s">
-        <v>199</v>
-      </c>
-      <c r="H60" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>131</v>
       </c>
       <c r="B61" t="s">
         <v>172</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D61" s="2">
         <v>41859</v>
@@ -2796,223 +2805,226 @@
         <v>199</v>
       </c>
       <c r="H61" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" s="2">
+        <v>41859</v>
+      </c>
+      <c r="E62" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F62" t="s">
+        <v>52</v>
+      </c>
+      <c r="G62" t="s">
+        <v>199</v>
+      </c>
+      <c r="H62" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>133</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>170</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>134</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D63" s="2">
         <v>42090</v>
       </c>
-      <c r="E62" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="E63" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F63" t="s">
         <v>9</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G63" t="s">
         <v>211</v>
       </c>
-      <c r="H62" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="H63" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>135</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>178</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>136</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D64" s="2">
         <v>43431</v>
       </c>
-      <c r="E63" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F63" t="s">
-        <v>246</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="E64" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F64" t="s">
+        <v>245</v>
+      </c>
+      <c r="G64" t="s">
         <v>212</v>
       </c>
-      <c r="H63" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="H64" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>137</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>172</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>138</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D65" s="2">
         <v>38723</v>
       </c>
-      <c r="E64" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="E65" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F65" t="s">
         <v>31</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G65" t="s">
         <v>182</v>
       </c>
-      <c r="H64" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="H65" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>139</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>170</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>140</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D66" s="2">
         <v>43733</v>
       </c>
-      <c r="E65" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="E66" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F66" t="s">
         <v>52</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G66" t="s">
         <v>199</v>
       </c>
-      <c r="H65" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="H66" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>141</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>176</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>142</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D67" s="2">
         <v>42083</v>
       </c>
-      <c r="E66" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="E67" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F67" t="s">
         <v>70</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G67" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>143</v>
-      </c>
-      <c r="B67" t="s">
-        <v>172</v>
-      </c>
-      <c r="C67" t="s">
-        <v>144</v>
-      </c>
-      <c r="D67" s="2">
-        <v>39069</v>
-      </c>
-      <c r="E67" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F67" t="s">
-        <v>145</v>
-      </c>
-      <c r="G67" t="s">
-        <v>213</v>
-      </c>
-      <c r="H67" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>146</v>
       </c>
       <c r="B68" t="s">
         <v>172</v>
       </c>
       <c r="C68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" s="2">
+        <v>39069</v>
+      </c>
+      <c r="E68" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F68" t="s">
+        <v>145</v>
+      </c>
+      <c r="G68" t="s">
+        <v>213</v>
+      </c>
+      <c r="H68" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" t="s">
         <v>147</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D69" s="2">
         <v>41543</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E69" s="2">
         <v>42468</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F69" t="s">
         <v>52</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H68" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="H69" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>148</v>
-      </c>
-      <c r="B69" t="s">
-        <v>176</v>
-      </c>
-      <c r="C69" t="s">
-        <v>149</v>
-      </c>
-      <c r="D69" s="2">
-        <v>41523</v>
-      </c>
-      <c r="E69" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F69" t="s">
-        <v>70</v>
-      </c>
-      <c r="G69" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>150</v>
       </c>
       <c r="B70" t="s">
         <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D70" s="2">
-        <v>43329</v>
+        <v>41523</v>
       </c>
       <c r="E70" s="2">
         <v>47484</v>
@@ -3024,238 +3036,261 @@
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" s="2">
+        <v>43329</v>
+      </c>
+      <c r="E71" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F71" t="s">
+        <v>70</v>
+      </c>
+      <c r="G71" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>152</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>172</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>153</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D72" s="2">
         <v>43686</v>
       </c>
-      <c r="E71" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F71" t="s">
-        <v>216</v>
-      </c>
-      <c r="G71" s="4" t="s">
+      <c r="E72" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F72" t="s">
+        <v>215</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="H71" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>154</v>
-      </c>
-      <c r="B72" t="s">
-        <v>169</v>
-      </c>
-      <c r="C72" t="s">
-        <v>155</v>
-      </c>
-      <c r="D72" s="2">
-        <v>39958</v>
-      </c>
-      <c r="E72" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F72" t="s">
-        <v>43</v>
-      </c>
-      <c r="G72" t="s">
-        <v>194</v>
       </c>
       <c r="H72" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" t="s">
+        <v>155</v>
+      </c>
+      <c r="D73" s="2">
+        <v>39958</v>
+      </c>
+      <c r="E73" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F73" t="s">
+        <v>43</v>
+      </c>
+      <c r="G73" t="s">
+        <v>194</v>
+      </c>
+      <c r="H73" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>156</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>172</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>157</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D74" s="2">
         <v>41114</v>
       </c>
-      <c r="E73" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F73" t="s">
-        <v>245</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="E74" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F74" t="s">
+        <v>244</v>
+      </c>
+      <c r="G74" t="s">
         <v>208</v>
       </c>
-      <c r="H73" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="H74" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>158</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>170</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>159</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D75" s="2">
         <v>39899</v>
       </c>
-      <c r="E74" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F74" t="s">
-        <v>249</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="E75" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F75" t="s">
+        <v>248</v>
+      </c>
+      <c r="G75" t="s">
         <v>199</v>
       </c>
-      <c r="H74" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="H75" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>160</v>
-      </c>
-      <c r="B75" t="s">
-        <v>172</v>
-      </c>
-      <c r="C75" t="s">
-        <v>157</v>
-      </c>
-      <c r="D75" s="2">
-        <v>38355</v>
-      </c>
-      <c r="E75" s="2">
-        <v>41417</v>
-      </c>
-      <c r="F75" t="s">
-        <v>245</v>
-      </c>
-      <c r="G75" t="s">
-        <v>208</v>
-      </c>
-      <c r="H75" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>161</v>
       </c>
       <c r="B76" t="s">
         <v>172</v>
       </c>
       <c r="C76" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D76" s="2">
         <v>38355</v>
       </c>
       <c r="E76" s="2">
+        <v>41417</v>
+      </c>
+      <c r="F76" t="s">
+        <v>244</v>
+      </c>
+      <c r="G76" t="s">
+        <v>208</v>
+      </c>
+      <c r="H76" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="2">
+        <v>38355</v>
+      </c>
+      <c r="E77" s="2">
         <v>41235</v>
       </c>
-      <c r="F76" t="s">
-        <v>245</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="F77" t="s">
+        <v>244</v>
+      </c>
+      <c r="G77" t="s">
         <v>187</v>
       </c>
-      <c r="H76" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="H77" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>163</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>169</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>164</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D78" s="2">
         <v>38726</v>
       </c>
-      <c r="E77" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="E78" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F78" t="s">
         <v>6</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G78" t="s">
         <v>214</v>
       </c>
-      <c r="H77" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="H78" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>165</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>172</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>147</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D79" s="2">
         <v>42142</v>
       </c>
-      <c r="E78" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="E79" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F79" t="s">
         <v>59</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G79" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H78" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="H79" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>166</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>170</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>167</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D80" s="2">
         <v>39167</v>
       </c>
-      <c r="E79" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="E80" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F80" t="s">
         <v>9</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G80" t="s">
         <v>192</v>
       </c>
-      <c r="H79" t="s">
-        <v>226</v>
+      <c r="H80" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/aiutils/future_classify.xlsx
+++ b/aiutils/future_classify.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$81</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="256">
   <si>
     <t>underlying</t>
   </si>
@@ -867,6 +867,18 @@
   </si>
   <si>
     <t>自定义分类：不活跃合约，归类到“xx其他"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GFEX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业硅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1232,24 +1244,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="F1" s="3" t="s">
         <v>252</v>
       </c>
@@ -1263,7 +1275,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1301,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1327,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1341,7 +1353,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1367,7 +1379,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1393,7 +1405,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1419,7 +1431,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1445,7 +1457,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1471,7 +1483,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1497,7 +1509,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1523,7 +1535,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1549,7 +1561,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1575,7 +1587,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1601,7 +1613,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1627,7 +1639,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1653,7 +1665,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1679,7 +1691,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1705,7 +1717,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1731,7 +1743,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1757,7 +1769,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1783,7 +1795,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1809,7 +1821,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1835,7 +1847,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1858,7 +1870,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1884,7 +1896,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -1910,7 +1922,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -1933,7 +1945,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1956,7 +1968,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -1979,7 +1991,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>249</v>
       </c>
@@ -2002,7 +2014,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -2028,7 +2040,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -2054,7 +2066,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -2080,7 +2092,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -2106,7 +2118,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -2132,7 +2144,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -2158,7 +2170,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -2184,7 +2196,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -2210,7 +2222,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -2236,7 +2248,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -2262,7 +2274,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -2288,7 +2300,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>93</v>
       </c>
@@ -2314,7 +2326,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>95</v>
       </c>
@@ -2340,7 +2352,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>97</v>
       </c>
@@ -2366,7 +2378,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>99</v>
       </c>
@@ -2392,7 +2404,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>101</v>
       </c>
@@ -2418,7 +2430,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -2444,7 +2456,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -2470,7 +2482,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>107</v>
       </c>
@@ -2496,7 +2508,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -2522,7 +2534,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -2548,7 +2560,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -2574,7 +2586,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>115</v>
       </c>
@@ -2600,7 +2612,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>116</v>
       </c>
@@ -2626,7 +2638,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>118</v>
       </c>
@@ -2652,7 +2664,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>119</v>
       </c>
@@ -2678,7 +2690,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -2704,7 +2716,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -2730,7 +2742,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -2756,7 +2768,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -2782,7 +2794,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>129</v>
       </c>
@@ -2808,246 +2820,240 @@
         <v>227</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>253</v>
+      </c>
+      <c r="B62" t="s">
+        <v>254</v>
+      </c>
+      <c r="C62" t="s">
+        <v>255</v>
+      </c>
+      <c r="D62" s="2">
+        <v>44917</v>
+      </c>
+      <c r="E62" s="2">
+        <v>47484</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>131</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>172</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>132</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D63" s="2">
         <v>41859</v>
       </c>
-      <c r="E62" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="E63" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F63" t="s">
         <v>52</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G63" t="s">
         <v>199</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H63" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>133</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>170</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>134</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D64" s="2">
         <v>42090</v>
       </c>
-      <c r="E63" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="E64" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F64" t="s">
         <v>9</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G64" t="s">
         <v>211</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H64" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>135</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>178</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>136</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D65" s="2">
         <v>43431</v>
       </c>
-      <c r="E64" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="E65" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F65" t="s">
         <v>245</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G65" t="s">
         <v>212</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H65" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>137</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>172</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>138</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D66" s="2">
         <v>38723</v>
       </c>
-      <c r="E65" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="E66" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F66" t="s">
         <v>31</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G66" t="s">
         <v>182</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H66" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>139</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>170</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>140</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D67" s="2">
         <v>43733</v>
       </c>
-      <c r="E66" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="E67" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F67" t="s">
         <v>52</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G67" t="s">
         <v>199</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H67" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>141</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>176</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>142</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D68" s="2">
         <v>42083</v>
       </c>
-      <c r="E67" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="E68" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F68" t="s">
         <v>70</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G68" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>143</v>
-      </c>
-      <c r="B68" t="s">
-        <v>172</v>
-      </c>
-      <c r="C68" t="s">
-        <v>144</v>
-      </c>
-      <c r="D68" s="2">
-        <v>39069</v>
-      </c>
-      <c r="E68" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F68" t="s">
-        <v>145</v>
-      </c>
-      <c r="G68" t="s">
-        <v>213</v>
-      </c>
-      <c r="H68" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>146</v>
       </c>
       <c r="B69" t="s">
         <v>172</v>
       </c>
       <c r="C69" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="2">
+        <v>39069</v>
+      </c>
+      <c r="E69" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F69" t="s">
+        <v>145</v>
+      </c>
+      <c r="G69" t="s">
+        <v>213</v>
+      </c>
+      <c r="H69" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" t="s">
         <v>147</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D70" s="2">
         <v>41543</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E70" s="2">
         <v>42468</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F70" t="s">
         <v>52</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G70" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H70" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>148</v>
-      </c>
-      <c r="B70" t="s">
-        <v>176</v>
-      </c>
-      <c r="C70" t="s">
-        <v>149</v>
-      </c>
-      <c r="D70" s="2">
-        <v>41523</v>
-      </c>
-      <c r="E70" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F70" t="s">
-        <v>70</v>
-      </c>
-      <c r="G70" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>150</v>
       </c>
       <c r="B71" t="s">
         <v>176</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D71" s="2">
-        <v>43329</v>
+        <v>41523</v>
       </c>
       <c r="E71" s="2">
         <v>47484</v>
@@ -3059,237 +3065,260 @@
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="2">
+        <v>43329</v>
+      </c>
+      <c r="E72" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F72" t="s">
+        <v>70</v>
+      </c>
+      <c r="G72" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>152</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>172</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>153</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D73" s="2">
         <v>43686</v>
       </c>
-      <c r="E72" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="E73" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F73" t="s">
         <v>215</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G73" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H73" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>154</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>169</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>155</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D74" s="2">
         <v>39958</v>
       </c>
-      <c r="E73" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="E74" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F74" t="s">
         <v>43</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G74" t="s">
         <v>194</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H74" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>156</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>172</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>157</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D75" s="2">
         <v>41114</v>
       </c>
-      <c r="E74" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="E75" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F75" t="s">
         <v>244</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G75" t="s">
         <v>208</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H75" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>158</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>170</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>159</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D76" s="2">
         <v>39899</v>
       </c>
-      <c r="E75" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="E76" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F76" t="s">
         <v>248</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G76" t="s">
         <v>199</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H76" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>160</v>
-      </c>
-      <c r="B76" t="s">
-        <v>172</v>
-      </c>
-      <c r="C76" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76" s="2">
-        <v>38355</v>
-      </c>
-      <c r="E76" s="2">
-        <v>41417</v>
-      </c>
-      <c r="F76" t="s">
-        <v>244</v>
-      </c>
-      <c r="G76" t="s">
-        <v>208</v>
-      </c>
-      <c r="H76" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>161</v>
       </c>
       <c r="B77" t="s">
         <v>172</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D77" s="2">
         <v>38355</v>
       </c>
       <c r="E77" s="2">
-        <v>41235</v>
+        <v>41417</v>
       </c>
       <c r="F77" t="s">
         <v>244</v>
       </c>
       <c r="G77" t="s">
+        <v>208</v>
+      </c>
+      <c r="H77" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="2">
+        <v>38355</v>
+      </c>
+      <c r="E78" s="2">
+        <v>41235</v>
+      </c>
+      <c r="F78" t="s">
+        <v>244</v>
+      </c>
+      <c r="G78" t="s">
         <v>187</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H78" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>163</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>169</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>164</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D79" s="2">
         <v>38726</v>
       </c>
-      <c r="E78" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="E79" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F79" t="s">
         <v>6</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G79" t="s">
         <v>214</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H79" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>165</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>172</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>147</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D80" s="2">
         <v>42142</v>
       </c>
-      <c r="E79" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="E80" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F80" t="s">
         <v>59</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G80" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H80" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>166</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>170</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>167</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D81" s="2">
         <v>39167</v>
       </c>
-      <c r="E80" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="E81" s="2">
+        <v>47484</v>
+      </c>
+      <c r="F81" t="s">
         <v>9</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G81" t="s">
         <v>192</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H81" t="s">
         <v>225</v>
       </c>
     </row>

--- a/aiutils/future_classify.xlsx
+++ b/aiutils/future_classify.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$82</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="260">
   <si>
     <t>underlying</t>
   </si>
@@ -879,6 +879,22 @@
   </si>
   <si>
     <t>工业硅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCFX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30年期国债</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一行为字段描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -889,7 +905,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,6 +926,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -954,16 +977,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1244,11 +1273,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1262,13 +1289,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="F1" s="3" t="s">
+      <c r="A1" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>218</v>
       </c>
       <c r="I1" t="s">
@@ -1315,7 +1349,7 @@
         <v>38355</v>
       </c>
       <c r="E3" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -1341,7 +1375,7 @@
         <v>41039</v>
       </c>
       <c r="E4" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -1367,7 +1401,7 @@
         <v>38355</v>
       </c>
       <c r="E5" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1393,7 +1427,7 @@
         <v>43091</v>
       </c>
       <c r="E6" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1419,7 +1453,7 @@
         <v>39456</v>
       </c>
       <c r="E7" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -1445,7 +1479,7 @@
         <v>38355</v>
       </c>
       <c r="E8" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F8" t="s">
         <v>240</v>
@@ -1471,7 +1505,7 @@
         <v>41614</v>
       </c>
       <c r="E9" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F9" t="s">
         <v>241</v>
@@ -1497,7 +1531,7 @@
         <v>44154</v>
       </c>
       <c r="E10" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -1523,7 +1557,7 @@
         <v>41556</v>
       </c>
       <c r="E11" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -1549,7 +1583,7 @@
         <v>38355</v>
       </c>
       <c r="E12" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
@@ -1575,7 +1609,7 @@
         <v>38355</v>
       </c>
       <c r="E13" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F13" t="s">
         <v>31</v>
@@ -1601,7 +1635,7 @@
         <v>43585</v>
       </c>
       <c r="E14" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
@@ -1627,7 +1661,7 @@
         <v>41992</v>
       </c>
       <c r="E15" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F15" t="s">
         <v>28</v>
@@ -1653,7 +1687,7 @@
         <v>38355</v>
       </c>
       <c r="E16" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1679,7 +1713,7 @@
         <v>42965</v>
       </c>
       <c r="E17" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F17" t="s">
         <v>40</v>
@@ -1705,7 +1739,7 @@
         <v>43734</v>
       </c>
       <c r="E18" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F18" t="s">
         <v>43</v>
@@ -1731,7 +1765,7 @@
         <v>43444</v>
       </c>
       <c r="E19" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F19" t="s">
         <v>43</v>
@@ -1783,7 +1817,7 @@
         <v>41614</v>
       </c>
       <c r="E21" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F21" t="s">
         <v>243</v>
@@ -1809,12 +1843,12 @@
         <v>41246</v>
       </c>
       <c r="E22" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F22" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>194</v>
       </c>
       <c r="H22" t="s">
@@ -1835,7 +1869,7 @@
         <v>38355</v>
       </c>
       <c r="E23" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -1884,7 +1918,7 @@
         <v>41719</v>
       </c>
       <c r="E25" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -1910,7 +1944,7 @@
         <v>41565</v>
       </c>
       <c r="E26" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F26" t="s">
         <v>52</v>
@@ -1936,7 +1970,7 @@
         <v>42110</v>
       </c>
       <c r="E27" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F27" t="s">
         <v>64</v>
@@ -1959,7 +1993,7 @@
         <v>40284</v>
       </c>
       <c r="E28" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F28" t="s">
         <v>67</v>
@@ -1982,7 +2016,7 @@
         <v>42110</v>
       </c>
       <c r="E29" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F29" t="s">
         <v>70</v>
@@ -2005,7 +2039,7 @@
         <v>44764</v>
       </c>
       <c r="E30" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F30" t="s">
         <v>70</v>
@@ -2028,7 +2062,7 @@
         <v>40648</v>
       </c>
       <c r="E31" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F31" t="s">
         <v>73</v>
@@ -2054,7 +2088,7 @@
         <v>41586</v>
       </c>
       <c r="E32" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F32" t="s">
         <v>31</v>
@@ -2080,7 +2114,7 @@
         <v>41355</v>
       </c>
       <c r="E33" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F33" t="s">
         <v>73</v>
@@ -2106,7 +2140,7 @@
         <v>41596</v>
       </c>
       <c r="E34" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F34" t="s">
         <v>244</v>
@@ -2132,7 +2166,7 @@
         <v>39294</v>
       </c>
       <c r="E35" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F35" t="s">
         <v>25</v>
@@ -2158,7 +2192,7 @@
         <v>44204</v>
       </c>
       <c r="E36" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F36" t="s">
         <v>40</v>
@@ -2184,7 +2218,7 @@
         <v>41828</v>
       </c>
       <c r="E37" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F37" t="s">
         <v>245</v>
@@ -2210,7 +2244,7 @@
         <v>44004</v>
       </c>
       <c r="E38" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F38" t="s">
         <v>246</v>
@@ -2236,7 +2270,7 @@
         <v>38355</v>
       </c>
       <c r="E39" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F39" t="s">
         <v>28</v>
@@ -2262,7 +2296,7 @@
         <v>41807</v>
       </c>
       <c r="E40" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F40" t="s">
         <v>43</v>
@@ -2290,7 +2324,7 @@
       <c r="E41" s="2">
         <v>42139</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="3" t="s">
         <v>239</v>
       </c>
       <c r="G41" t="s">
@@ -2314,7 +2348,7 @@
         <v>42090</v>
       </c>
       <c r="E42" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
@@ -2340,12 +2374,12 @@
         <v>43689</v>
       </c>
       <c r="E43" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F43" t="s">
         <v>52</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="3" t="s">
         <v>194</v>
       </c>
       <c r="H43" t="s">
@@ -2366,7 +2400,7 @@
         <v>41106</v>
       </c>
       <c r="E44" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F44" t="s">
         <v>28</v>
@@ -2392,7 +2426,7 @@
         <v>39384</v>
       </c>
       <c r="E45" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F45" t="s">
         <v>28</v>
@@ -2418,7 +2452,7 @@
         <v>40626</v>
       </c>
       <c r="E46" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -2444,7 +2478,7 @@
         <v>44116</v>
       </c>
       <c r="E47" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F47" t="s">
         <v>246</v>
@@ -2470,7 +2504,7 @@
         <v>43920</v>
       </c>
       <c r="E48" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F48" t="s">
         <v>25</v>
@@ -2496,7 +2530,7 @@
         <v>44228</v>
       </c>
       <c r="E49" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -2522,7 +2556,7 @@
         <v>40925</v>
       </c>
       <c r="E50" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F50" t="s">
         <v>244</v>
@@ -2548,7 +2582,7 @@
         <v>41698</v>
       </c>
       <c r="E51" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F51" t="s">
         <v>25</v>
@@ -2574,7 +2608,7 @@
         <v>39899</v>
       </c>
       <c r="E52" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F52" t="s">
         <v>59</v>
@@ -2600,7 +2634,7 @@
         <v>41114</v>
       </c>
       <c r="E53" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F53" t="s">
         <v>242</v>
@@ -2626,7 +2660,7 @@
         <v>41271</v>
       </c>
       <c r="E54" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F54" t="s">
         <v>6</v>
@@ -2678,7 +2712,7 @@
         <v>43693</v>
       </c>
       <c r="E56" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F56" t="s">
         <v>247</v>
@@ -2704,7 +2738,7 @@
         <v>41271</v>
       </c>
       <c r="E57" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F57" t="s">
         <v>244</v>
@@ -2730,12 +2764,12 @@
         <v>38355</v>
       </c>
       <c r="E58" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F58" t="s">
         <v>59</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="3" t="s">
         <v>194</v>
       </c>
       <c r="H58" t="s">
@@ -2756,12 +2790,12 @@
         <v>43805</v>
       </c>
       <c r="E59" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F59" t="s">
         <v>52</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G59" s="3" t="s">
         <v>194</v>
       </c>
       <c r="H59" t="s">
@@ -2782,7 +2816,7 @@
         <v>43185</v>
       </c>
       <c r="E60" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F60" t="s">
         <v>43</v>
@@ -2808,7 +2842,7 @@
         <v>41859</v>
       </c>
       <c r="E61" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F61" t="s">
         <v>52</v>
@@ -2834,7 +2868,7 @@
         <v>44917</v>
       </c>
       <c r="E62" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2851,7 +2885,7 @@
         <v>41859</v>
       </c>
       <c r="E63" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F63" t="s">
         <v>52</v>
@@ -2877,7 +2911,7 @@
         <v>42090</v>
       </c>
       <c r="E64" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -2903,7 +2937,7 @@
         <v>43431</v>
       </c>
       <c r="E65" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F65" t="s">
         <v>245</v>
@@ -2929,7 +2963,7 @@
         <v>38723</v>
       </c>
       <c r="E66" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F66" t="s">
         <v>31</v>
@@ -2955,7 +2989,7 @@
         <v>43733</v>
       </c>
       <c r="E67" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F67" t="s">
         <v>52</v>
@@ -2981,7 +3015,7 @@
         <v>42083</v>
       </c>
       <c r="E68" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F68" t="s">
         <v>70</v>
@@ -3004,7 +3038,7 @@
         <v>39069</v>
       </c>
       <c r="E69" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F69" t="s">
         <v>145</v>
@@ -3035,7 +3069,7 @@
       <c r="F70" t="s">
         <v>52</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" s="3" t="s">
         <v>194</v>
       </c>
       <c r="H70" t="s">
@@ -3056,7 +3090,7 @@
         <v>41523</v>
       </c>
       <c r="E71" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F71" t="s">
         <v>70</v>
@@ -3067,258 +3101,281 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="B72" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>258</v>
       </c>
       <c r="D72" s="2">
-        <v>43329</v>
+        <v>45037</v>
       </c>
       <c r="E72" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F72" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G72" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C73" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D73" s="2">
-        <v>43686</v>
+        <v>43329</v>
       </c>
       <c r="E73" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F73" t="s">
-        <v>215</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H73" t="s">
-        <v>229</v>
+        <v>70</v>
+      </c>
+      <c r="G73" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C74" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D74" s="2">
-        <v>39958</v>
+        <v>43686</v>
       </c>
       <c r="E74" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F74" t="s">
-        <v>43</v>
-      </c>
-      <c r="G74" t="s">
-        <v>194</v>
+        <v>215</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="H74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B75" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D75" s="2">
-        <v>41114</v>
+        <v>39958</v>
       </c>
       <c r="E75" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F75" t="s">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="G75" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="H75" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B76" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D76" s="2">
-        <v>39899</v>
+        <v>41114</v>
       </c>
       <c r="E76" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F76" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G76" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="H76" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D77" s="2">
-        <v>38355</v>
+        <v>39899</v>
       </c>
       <c r="E77" s="2">
-        <v>41417</v>
+        <v>72686</v>
       </c>
       <c r="F77" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G77" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H77" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B78" t="s">
         <v>172</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D78" s="2">
         <v>38355</v>
       </c>
       <c r="E78" s="2">
-        <v>41235</v>
+        <v>41417</v>
       </c>
       <c r="F78" t="s">
         <v>244</v>
       </c>
       <c r="G78" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="H78" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D79" s="2">
-        <v>38726</v>
+        <v>38355</v>
       </c>
       <c r="E79" s="2">
-        <v>47484</v>
+        <v>41235</v>
       </c>
       <c r="F79" t="s">
-        <v>6</v>
+        <v>244</v>
       </c>
       <c r="G79" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="H79" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B80" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="D80" s="2">
-        <v>42142</v>
+        <v>38726</v>
       </c>
       <c r="E80" s="2">
-        <v>47484</v>
+        <v>72686</v>
       </c>
       <c r="F80" t="s">
-        <v>59</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>194</v>
+        <v>6</v>
+      </c>
+      <c r="G80" t="s">
+        <v>214</v>
       </c>
       <c r="H80" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" t="s">
+        <v>172</v>
+      </c>
+      <c r="C81" t="s">
+        <v>147</v>
+      </c>
+      <c r="D81" s="2">
+        <v>42142</v>
+      </c>
+      <c r="E81" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F81" t="s">
+        <v>59</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H81" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>166</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>170</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>167</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D82" s="2">
         <v>39167</v>
       </c>
-      <c r="E81" s="2">
-        <v>47484</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="E82" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F82" t="s">
         <v>9</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G82" t="s">
         <v>192</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H82" t="s">
         <v>225</v>
       </c>
     </row>
